--- a/biology/Botanique/Edithcolea/Edithcolea.xlsx
+++ b/biology/Botanique/Edithcolea/Edithcolea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edithcolea est un genre monotypique avec une seule espèce Edithcolea grandis (Fleur tapis persan). Autrefois classée dans la famille des Asclepiadaceae, elle est maintenant dans la sous-famille des Asclepiadoideae de la famille des Apocynaceae. Elle est originaire d'Afrique et de la péninsule Arabique[1].
-Le genre est nommé d'après Miss Edith Cole (1859-1940). Elle a collecté  cette plante avec Mme Lort Philips en 1895, lors d'une expédition botanique (1894-1895), dirigée par M. Ethelbert Edward Lort Phillips (1857-1944) à partir de Berbera jusqu'aux monts Golis  du nord de la Somalie[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edithcolea est un genre monotypique avec une seule espèce Edithcolea grandis (Fleur tapis persan). Autrefois classée dans la famille des Asclepiadaceae, elle est maintenant dans la sous-famille des Asclepiadoideae de la famille des Apocynaceae. Elle est originaire d'Afrique et de la péninsule Arabique.
+Le genre est nommé d'après Miss Edith Cole (1859-1940). Elle a collecté  cette plante avec Mme Lort Philips en 1895, lors d'une expédition botanique (1894-1895), dirigée par M. Ethelbert Edward Lort Phillips (1857-1944) à partir de Berbera jusqu'aux monts Golis  du nord de la Somalie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edithcolea grandis est une plante succulente  sans feuilles avec des tiges abondamment ramifiées et retombantes d'un diamètre de 2 à 4 cm et jusqu'à 30 cm de longueur (réf Prota 2, ref D.V. Field 1980). Les tiges sont glabres à 4 ou 5 angles et armées de dents (ou tubercules) dures et aiguës,comme des épines, régulièrement espacées. La couleur de base de la plante varie du vert au rouge avec des taches brunâtres.
 Les fleurs sont hermaphrodites monoïques, de 8 à 13 cm de diamètre et sont formées à proximité de l'apex des rameaux. La fleur se compose d'un extérieur de la corolle à 5 lobes  (pétales), qui sont fusionnés à mi-chemin du centre et de la relativement faible de l'intérieur de la corolle. L'extérieur ou l'arrière de la fleur est de couleur jaune à verte. L'intérieur consiste en une couleur de base jaune pâle avec des motifs en taches pourpre-rougeâtre  sur le pourtour qui deviennent progressivement plus petits près de la couronne intérieure, et se transforment, vers le centre, en des lignes rougeâtres concentriques. De longs poils violets sont présents à la frontière du bord extérieur, sur les lobes de la corolle. La fleur, assez remarquable est parfois décrite comme la fleur tapis  persan. Son odeur de charogne attire les mouches et d'autres insectes pour la pollinisation.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Edithcolea grandis est distribué dans toute l'Afrique des Grands Lacs de la région (Kenya, Tanzanie, Ouganda), la Corne de l'Afrique (Éthiopie, Somalie) et Yémen (y compris l'archipel de Socotra ). La plante se trouvé dans des régions sèches et arides, parfois en plein soleil, mais surtout en partie ombragée par des rochers et de la végétation arbustive.
 </t>
@@ -577,7 +593,9 @@
           <t>De l'utilisation et de la croissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige de Edithcolea grandis est consommée comme un légume en Éthiopie et en Somalie. (Ref Prota 2, ref Getahuna 1974)
 Edithcolea grandis est parfois cultivée comme plante ornementale dans les jardins du désert dans le monde entier. Elle a acquis une réputation de plante particulièrement difficile à maintenir en raison de ses besoins très spécifiques avec beaucoup de lumière et des températures hivernales relativement élevées (au-dessus de 15 °C). Elle est très sensible à la pourriture en combinaison avec des températures basses.
@@ -609,7 +627,9 @@
           <t>La littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D.V. Field. Edithcolea grandis. Asclépios 20: 18-21, 1980.
 J.J. Lavranos &amp; D.S. Hardy. Edithcolea grandis var. baylissiana Lavranos &amp; Hardy. Asclépios 20: 21-23, 1980.
